--- a/subjects/cogsci/Project/t7/data.xlsx
+++ b/subjects/cogsci/Project/t7/data.xlsx
@@ -424,6 +424,237 @@
     <t xml:space="preserve">2020-11-11-18-06</t>
   </si>
   <si>
+    <t xml:space="preserve">s.1b49a5ff-eea2-4f5a-8496-39e6b4c547cd.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHUBHANKAR SAHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prp.2020-11-11-2023.data.1b49a5ff-eea2-4f5a-8496-39e6b4c547cd.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-11-20-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-11-20-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.bb1f66ba-58b6-41b0-8597-2ad473013b6d.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rishab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prp.2020-11-11-2032.data.bb1f66ba-58b6-41b0-8597-2ad473013b6d.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-11-20-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-11-20-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.3b326199-1779-4820-a21f-872ef2b6d731.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sai rohith areti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prp.2020-11-11-2044.data.3b326199-1779-4820-a21f-872ef2b6d731.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-11-20-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-11-20-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.b763ee23-3fad-45d4-be17-d7fa1ae20ace.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Sai Siddharth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prp.2020-11-12-1541.data.b763ee23-3fad-45d4-be17-d7fa1ae20ace.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-12-15-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-12-15-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.62bdff3c-3db5-4962-92a6-7ac256572d11.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aamir Farhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prp.2020-11-13-1207.data.62bdff3c-3db5-4962-92a6-7ac256572d11.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-13-11-52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-13-12-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.15144b3c-aba9-42ff-825d-4fccbd48d62d.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avlok Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prp.2020-11-14-0448.data.15144b3c-aba9-42ff-825d-4fccbd48d62d.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-14-04-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-14-04-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.da80879c-2a77-49cd-a342-6ba9688201d5.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arjun Andra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prp.2020-11-14-0454.data.da80879c-2a77-49cd-a342-6ba9688201d5.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-14-04-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.0bed74fd-bd2b-4f7c-8906-8e7b89edfc4c.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalees Jahanzaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prp.2020-11-14-1707.data.0bed74fd-bd2b-4f7c-8906-8e7b89edfc4c.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-13-15-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-14-17-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.b12e4263-a5aa-4693-b577-442edfb06835.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivek Pamnani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prp.2020-11-14-1755.data.b12e4263-a5aa-4693-b577-442edfb06835.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-14-17-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-14-17-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.14c21675-99e6-4b98-903d-771291dd4aa8.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aamir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-13-15-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.bf7d249b-ee84-4bdc-9ff4-dffd4ae95aa4.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-20-19-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.0c6887ae-a739-4de3-b9b6-041e45b67b71.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-20-20-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.53badbfe-8b59-49bd-864c-67bf940c616e.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-20-19-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.36c752d9-5a24-486e-9d83-74bacb238245.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-11-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.fae17677-8c69-446f-9cf8-7ea0d366ebff.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-11-17-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.1a869e29-9c31-4d76-b15d-3613e49a472f.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-11-18-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.851c0921-7340-4b3a-a27c-d25e1a759f27.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rishab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-13-08-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.75f33130-d47d-4174-bbcb-a48d7d94564c.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-09-09-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.f179d6ad-180a-471d-aae9-0ff3ad519477.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-03-04-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.99e24721-eae5-4568-a6a2-c1b61350d653.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-05-14-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.891f6604-a2f9-4da2-a376-8cbebc467ae1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubhankar Saha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-03-11-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.bbf2648f-5c4a-4c5e-a8f8-1264a14a40b4.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-11-14-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.3fce1dca-97a6-4362-9067-f1403f0e5dec.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-04-19-57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.5d307c60-8899-45fd-b937-fe75fc906a20.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-14-10-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">s.0a226732-fb1d-47f6-acca-35318bbbff18.txt</t>
   </si>
   <si>
@@ -436,64 +667,16 @@
     <t xml:space="preserve">2020-11-11-18-30</t>
   </si>
   <si>
-    <t xml:space="preserve">s.1b49a5ff-eea2-4f5a-8496-39e6b4c547cd.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHUBHANKAR SAHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prp.2020-11-11-2023.data.1b49a5ff-eea2-4f5a-8496-39e6b4c547cd.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-11-20-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-11-20-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.bb1f66ba-58b6-41b0-8597-2ad473013b6d.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rishab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prp.2020-11-11-2032.data.bb1f66ba-58b6-41b0-8597-2ad473013b6d.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-11-20-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-11-20-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.3b326199-1779-4820-a21f-872ef2b6d731.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sai rohith areti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prp.2020-11-11-2044.data.3b326199-1779-4820-a21f-872ef2b6d731.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-11-20-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-11-20-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.b763ee23-3fad-45d4-be17-d7fa1ae20ace.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. Sai Siddharth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prp.2020-11-12-1541.data.b763ee23-3fad-45d4-be17-d7fa1ae20ace.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-12-15-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-12-15-41</t>
+    <t xml:space="preserve">s.66bd24af-8f45-4dbd-8c1b-94c217771a9f.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prp.2020-11-14-0830.data.66bd24af-8f45-4dbd-8c1b-94c217771a9f.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-14-08-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-14-08-30</t>
   </si>
   <si>
     <t xml:space="preserve">s.f5d784a4-3c7a-4468-88dc-210dd54ccaae.txt</t>
@@ -508,88 +691,100 @@
     <t xml:space="preserve">2020-11-13-09-33</t>
   </si>
   <si>
-    <t xml:space="preserve">s.62bdff3c-3db5-4962-92a6-7ac256572d11.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aamir Farhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prp.2020-11-13-1207.data.62bdff3c-3db5-4962-92a6-7ac256572d11.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-13-11-52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-13-12-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.15144b3c-aba9-42ff-825d-4fccbd48d62d.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avlok Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prp.2020-11-14-0448.data.15144b3c-aba9-42ff-825d-4fccbd48d62d.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-14-04-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-14-04-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.da80879c-2a77-49cd-a342-6ba9688201d5.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arjun Andra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prp.2020-11-14-0454.data.da80879c-2a77-49cd-a342-6ba9688201d5.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-14-04-54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.66bd24af-8f45-4dbd-8c1b-94c217771a9f.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prp.2020-11-14-0830.data.66bd24af-8f45-4dbd-8c1b-94c217771a9f.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-14-08-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-14-08-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.0bed74fd-bd2b-4f7c-8906-8e7b89edfc4c.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalees Jahanzaib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prp.2020-11-14-1707.data.0bed74fd-bd2b-4f7c-8906-8e7b89edfc4c.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-13-15-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-14-17-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.b12e4263-a5aa-4693-b577-442edfb06835.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vivek Pamnani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prp.2020-11-14-1755.data.b12e4263-a5aa-4693-b577-442edfb06835.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-14-17-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-14-17-55</t>
+    <t xml:space="preserve">s.8c8225b6-b4b9-4cfe-9894-8ab99340e439.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sai krishna sakuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-12-12-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.48d2f14b-576a-46fa-b1b6-6778568a9a07.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanmay Pathak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-11-21-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.ede98bce-8e2a-4e07-a79a-77ed5a6f2710.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-04-19-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.0e2f6273-effb-461e-99b1-34db2634a662.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vijayraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-04-19-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.c67dab81-a15b-45d4-a778-4eeeb2774c6f.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.be6c883e-031e-4267-aa66-139e0469cfce.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-07-08-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.7d163b4b-cf37-4de1-a0e4-b36ae4ee625e.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-04-20-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.b5b91517-2413-4688-84a5-d5095a18b73a.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-19-15-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.f6725415-40c4-4346-bbf4-63c51f6930b0.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-13-09-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.f7e36d88-49ed-474b-a878-bb2eed7ecb50.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-03-16-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.13db41f9-2df9-4a0d-8ffa-c6d25d2b2aec.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-04-21-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.9dda1915-f955-46cf-b43f-68ca10d95ac2.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-04-19-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.bbf092aa-c336-4b78-8c87-e7fd9bd98dec.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-13-11-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.3e69a9e3-7633-449f-a175-de24056df2de.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gautham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-14-17-51</t>
   </si>
   <si>
     <t xml:space="preserve">s.f2503f72-241c-40e3-b38e-2209b21bfca8.txt</t>
@@ -601,91 +796,34 @@
     <t xml:space="preserve">2020-11-11-06-19</t>
   </si>
   <si>
-    <t xml:space="preserve">s.851c0921-7340-4b3a-a27c-d25e1a759f27.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rishab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-13-08-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.bf7d249b-ee84-4bdc-9ff4-dffd4ae95aa4.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-20-19-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.0c6887ae-a739-4de3-b9b6-041e45b67b71.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-20-20-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.5d307c60-8899-45fd-b937-fe75fc906a20.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-14-10-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.3fce1dca-97a6-4362-9067-f1403f0e5dec.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-04-19-57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.53badbfe-8b59-49bd-864c-67bf940c616e.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-20-19-55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.c67dab81-a15b-45d4-a778-4eeeb2774c6f.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.3e69a9e3-7633-449f-a175-de24056df2de.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gautham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-14-17-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.be6c883e-031e-4267-aa66-139e0469cfce.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-07-08-47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.75f33130-d47d-4174-bbcb-a48d7d94564c.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-09-09-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.7d163b4b-cf37-4de1-a0e4-b36ae4ee625e.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-04-20-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.b5b91517-2413-4688-84a5-d5095a18b73a.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-19-15-56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.bbf2648f-5c4a-4c5e-a8f8-1264a14a40b4.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-11-14-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.f179d6ad-180a-471d-aae9-0ff3ad519477.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-03-04-25</t>
+    <t xml:space="preserve">s.655fa303-ee1d-4456-8b90-60313633ba7f.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-14-08-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.d88ad406-0c64-4102-bff7-0d002f6a96b5.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MasterG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-04-19-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.58d9ebc4-a468-42e3-8c11-13a0d51591ff.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">masterG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.40cb0bd1-0b3c-4f35-96e4-aba48f115b18.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-14-13-25</t>
   </si>
   <si>
     <t xml:space="preserve">s.26f9936a-41d9-45ae-9fff-08b928f51be2.txt</t>
@@ -695,144 +833,6 @@
   </si>
   <si>
     <t xml:space="preserve">2020-11-03-09-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.ede98bce-8e2a-4e07-a79a-77ed5a6f2710.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-04-19-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.f6725415-40c4-4346-bbf4-63c51f6930b0.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-13-09-00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.d88ad406-0c64-4102-bff7-0d002f6a96b5.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MasterG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-04-19-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.99e24721-eae5-4568-a6a2-c1b61350d653.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-05-14-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.40cb0bd1-0b3c-4f35-96e4-aba48f115b18.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-14-13-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.0e2f6273-effb-461e-99b1-34db2634a662.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vijayraj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-04-19-37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.891f6604-a2f9-4da2-a376-8cbebc467ae1.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shubhankar Saha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-03-11-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.36c752d9-5a24-486e-9d83-74bacb238245.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-11-07-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.1a869e29-9c31-4d76-b15d-3613e49a472f.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-11-18-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.f7e36d88-49ed-474b-a878-bb2eed7ecb50.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-03-16-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.14c21675-99e6-4b98-903d-771291dd4aa8.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aamir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-13-15-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.13db41f9-2df9-4a0d-8ffa-c6d25d2b2aec.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-04-21-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.58d9ebc4-a468-42e3-8c11-13a0d51591ff.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">masterG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-04-19-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.8c8225b6-b4b9-4cfe-9894-8ab99340e439.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sai krishna sakuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-12-12-56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.655fa303-ee1d-4456-8b90-60313633ba7f.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-14-08-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.fae17677-8c69-446f-9cf8-7ea0d366ebff.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-11-17-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.48d2f14b-576a-46fa-b1b6-6778568a9a07.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanmay Pathak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-11-21-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.9dda1915-f955-46cf-b43f-68ca10d95ac2.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.bbf092aa-c336-4b78-8c87-e7fd9bd98dec.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-13-11-17</t>
   </si>
 </sst>
 </file>
@@ -842,7 +842,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -867,6 +867,41 @@
     <font>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF069A2E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBE480A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3FAF46"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFF10D0C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF861141"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -914,12 +949,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -936,22 +991,22 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFF10D0C"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF069A2E"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF861141"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -983,10 +1038,10 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF3FAF46"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FFBE480A"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1000,13 +1055,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.6"/>
@@ -1048,7 +1103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>9</v>
       </c>
@@ -1077,7 +1132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>14</v>
       </c>
@@ -1107,60 +1162,60 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="2" t="n">
         <v>2019201014</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="E4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>20171076</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="E5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1194,31 +1249,31 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>20171050</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="E7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1281,31 +1336,31 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="3" t="n">
         <v>20171008</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="E10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1338,7 +1393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>59</v>
       </c>
@@ -1367,36 +1422,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>2019900091</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="E13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>69</v>
       </c>
@@ -1425,65 +1480,65 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="4" t="n">
         <v>2019211003</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="E15" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="4" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="2" t="n">
         <v>20171212</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="0" t="s">
+      <c r="E16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="2" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>84</v>
       </c>
@@ -1512,7 +1567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>89</v>
       </c>
@@ -1541,61 +1596,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="4" t="n">
         <v>20161004</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="0" t="s">
+      <c r="E19" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="4" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>2019201031</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="0" t="s">
+      <c r="E20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1745,130 +1800,130 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="5" t="n">
         <v>2019201049</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" s="0" t="s">
+      <c r="E26" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="5" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>2019201049</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="C27" s="4" t="n">
+        <v>2019201097</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I27" s="1" t="n">
-        <v>9</v>
+      <c r="H27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="0" t="s">
+      <c r="A28" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="0" t="n">
-        <v>2019201097</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" s="0" t="s">
+      <c r="B28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="C28" s="4" t="n">
+        <v>2019201050</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="G28" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="H28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>2019201072</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" s="3" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>2019201050</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>2019201072</v>
+        <v>2018122006</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>22</v>
@@ -1877,841 +1932,923 @@
         <v>2</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <v>2018122006</v>
-      </c>
-      <c r="D31" s="0" t="n">
+      <c r="B31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>20161078</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>2018111017</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2018101020</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2018101001</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="35" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>2018111032</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+    </row>
+    <row r="37" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>20161078</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>20171212</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>20171212</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>20171212</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>20171212</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="6" t="n">
+        <v>2019201049</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>2019201031</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>2019201050</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>2019201050</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>2019201050</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>2019201072</v>
+      </c>
+      <c r="D47" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="E47" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>2019201097</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>2019900091</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>20171050</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="4" t="n">
+        <v>2019211003</v>
+      </c>
+      <c r="D51" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>2019201049</v>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I52" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="4" t="n">
+        <v>20161004</v>
+      </c>
+      <c r="D53" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I53" s="4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C54" s="2" t="n">
         <v>2019201014</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D54" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E32" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I32" s="1" t="n">
+      <c r="E54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I54" s="2" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>20161078</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>2018111017</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>2018101020</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>20161004</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I36" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>2018101001</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>2018111032</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>2019201043</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>2019201050</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>20171212</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>20171212</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>2019211003</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>20171050</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>20171212</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>2018112003</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>2019201050</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>2019900091</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>2019201050</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B54" s="0" t="s">
+    <row r="58" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="E54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="0" t="s">
+      <c r="B58" s="0" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="C58" s="0" t="n">
+        <v>2019900016</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>324</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>20171089</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>2019201072</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>2018101042</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>237</v>
-      </c>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>20171026</v>
+        <v>2018102023</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>2019201097</v>
+        <v>324</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>20171212</v>
+        <v>20171026</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="F62" s="0"/>
       <c r="G62" s="0" t="s">
-        <v>245</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="H62" s="0"/>
+      <c r="I62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>2019201031</v>
-      </c>
-      <c r="D63" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E63" s="0" t="n">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>20161078</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>20171089</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <v>2</v>
+        <v>242</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>2019900016</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="E68" s="0" t="n">
-        <v>2</v>
+        <v>244</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>2019201043</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="E69" s="0" t="n">
-        <v>2</v>
+        <v>246</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>2019201049</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="72" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2018112003</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" s="0"/>
+      <c r="G72" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="H72" s="0"/>
+      <c r="I72" s="0"/>
+    </row>
+    <row r="73" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2019201043</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" s="0"/>
+      <c r="G73" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="H73" s="0"/>
+      <c r="I73" s="0"/>
+    </row>
+    <row r="74" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2019201043</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" s="0"/>
+      <c r="G74" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="H74" s="0"/>
+      <c r="I74" s="0"/>
+    </row>
+    <row r="75" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>20171089</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" s="0"/>
+      <c r="G75" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="H75" s="0"/>
+      <c r="I75" s="0"/>
+    </row>
+    <row r="76" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>20171089</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" s="0"/>
+      <c r="G76" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="H76" s="0"/>
+      <c r="I76" s="0"/>
+    </row>
+    <row r="77" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B77" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="C71" s="0" t="n">
-        <v>2018102023</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="E71" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G71" s="0" t="s">
+      <c r="C77" s="0" t="n">
+        <v>2018101042</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" s="0"/>
+      <c r="G77" s="0" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="H77" s="0"/>
+      <c r="I77" s="0"/>
+    </row>
+    <row r="78" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="E72" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="B78" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="C78" s="0"/>
+      <c r="D78" s="0"/>
+      <c r="E78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="0"/>
+      <c r="G78" s="0" t="s">
         <v>270</v>
       </c>
+      <c r="H78" s="0"/>
+      <c r="I78" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/subjects/cogsci/Project/t7/data.xlsx
+++ b/subjects/cogsci/Project/t7/data.xlsx
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
